--- a/teaching/traditional_assets/database/data/bulgaria/bulgaria_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/bulgaria/bulgaria_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03240000000000001</v>
+        <v>0.026</v>
       </c>
       <c r="G2">
-        <v>-0.01852501168770453</v>
+        <v>0.07937853107344633</v>
       </c>
       <c r="H2">
-        <v>-0.01852501168770453</v>
+        <v>0.07937853107344633</v>
       </c>
       <c r="I2">
-        <v>-0.1577840112201964</v>
+        <v>-0.1926553672316384</v>
       </c>
       <c r="J2">
-        <v>-0.1577840112201964</v>
+        <v>-0.1926553672316384</v>
       </c>
       <c r="K2">
-        <v>-1.33</v>
+        <v>-6.91</v>
       </c>
       <c r="L2">
-        <v>-0.03886161757830763</v>
+        <v>-0.1951977401129944</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.388000000000001</v>
+        <v>5.35</v>
       </c>
       <c r="V2">
-        <v>0.0004433756365693963</v>
+        <v>0.03331257783312578</v>
       </c>
       <c r="W2">
-        <v>0.008291053075625096</v>
+        <v>-0.06066725197541703</v>
       </c>
       <c r="X2">
-        <v>0.07131080326296596</v>
+        <v>0.0671426390441774</v>
       </c>
       <c r="Y2">
-        <v>-0.06301975018734086</v>
+        <v>-0.1278098910195944</v>
       </c>
       <c r="Z2">
-        <v>0.1696996142289042</v>
+        <v>0.1687562568527435</v>
       </c>
       <c r="AA2">
-        <v>-0.09613150970753979</v>
+        <v>-0.03251179863660199</v>
       </c>
       <c r="AB2">
-        <v>0.06356135564975716</v>
+        <v>0.05533213187662268</v>
       </c>
       <c r="AC2">
-        <v>-0.159692865357297</v>
+        <v>-0.08784393051322467</v>
       </c>
       <c r="AD2">
-        <v>133.8</v>
+        <v>121.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>133.8</v>
+        <v>121.2</v>
       </c>
       <c r="AG2">
-        <v>129.412</v>
+        <v>115.85</v>
       </c>
       <c r="AH2">
-        <v>0.01333918210276554</v>
+        <v>0.4300922640170334</v>
       </c>
       <c r="AI2">
-        <v>0.09220591275584039</v>
+        <v>0.4751078008624069</v>
       </c>
       <c r="AJ2">
-        <v>0.01290736720907158</v>
+        <v>0.4190631217218304</v>
       </c>
       <c r="AK2">
-        <v>0.08945249641946704</v>
+        <v>0.4638638638638639</v>
       </c>
       <c r="AL2">
-        <v>5.68</v>
+        <v>4.74</v>
       </c>
       <c r="AM2">
-        <v>3.886</v>
+        <v>3.46</v>
       </c>
       <c r="AN2">
-        <v>-151.7006802721089</v>
+        <v>-41.93771626297578</v>
       </c>
       <c r="AO2">
-        <v>-0.9507042253521127</v>
+        <v>-1.438818565400844</v>
       </c>
       <c r="AP2">
-        <v>-146.7256235827664</v>
+        <v>-40.08650519031142</v>
       </c>
       <c r="AQ2">
-        <v>-1.389603705609882</v>
+        <v>-1.971098265895954</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.03240000000000001</v>
+        <v>0.026</v>
       </c>
       <c r="G3">
-        <v>0.001778425655976677</v>
+        <v>0.07937853107344633</v>
       </c>
       <c r="H3">
-        <v>0.001778425655976677</v>
+        <v>0.07937853107344633</v>
       </c>
       <c r="I3">
-        <v>-0.0892128279883382</v>
+        <v>-0.1926553672316384</v>
       </c>
       <c r="J3">
-        <v>-0.0892128279883382</v>
+        <v>-0.1926553672316384</v>
       </c>
       <c r="K3">
-        <v>1.88</v>
+        <v>-6.91</v>
       </c>
       <c r="L3">
-        <v>0.05481049562682216</v>
+        <v>-0.1951977401129944</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,204 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.23</v>
+        <v>5.35</v>
       </c>
       <c r="V3">
-        <v>0.0282943143812709</v>
+        <v>0.03331257783312578</v>
       </c>
       <c r="W3">
-        <v>0.01910569105691057</v>
+        <v>-0.06066725197541703</v>
       </c>
       <c r="X3">
-        <v>0.08447211268399817</v>
+        <v>0.0671426390441774</v>
       </c>
       <c r="Y3">
-        <v>-0.0653664216270876</v>
+        <v>-0.1278098910195944</v>
       </c>
       <c r="Z3">
-        <v>0.1820787769402272</v>
+        <v>0.1687562568527435</v>
       </c>
       <c r="AA3">
-        <v>-0.01624376260749549</v>
+        <v>-0.03251179863660199</v>
       </c>
       <c r="AB3">
-        <v>0.06901287200876044</v>
+        <v>0.05533213187662268</v>
       </c>
       <c r="AC3">
-        <v>-0.08525663461625593</v>
+        <v>-0.08784393051322467</v>
       </c>
       <c r="AD3">
-        <v>112.8</v>
+        <v>121.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>112.8</v>
+        <v>121.2</v>
       </c>
       <c r="AG3">
-        <v>108.57</v>
+        <v>115.85</v>
       </c>
       <c r="AH3">
-        <v>0.4300419367136866</v>
+        <v>0.4300922640170334</v>
       </c>
       <c r="AI3">
-        <v>0.4666942490690939</v>
+        <v>0.4751078008624069</v>
       </c>
       <c r="AJ3">
-        <v>0.4206998101290347</v>
+        <v>0.4190631217218304</v>
       </c>
       <c r="AK3">
-        <v>0.4571945930012212</v>
+        <v>0.4638638638638639</v>
       </c>
       <c r="AL3">
-        <v>4.34</v>
+        <v>4.74</v>
       </c>
       <c r="AM3">
-        <v>2.63</v>
+        <v>3.46</v>
       </c>
       <c r="AN3">
-        <v>-5371.428571428571</v>
+        <v>-41.93771626297578</v>
       </c>
       <c r="AO3">
-        <v>-0.7050691244239632</v>
+        <v>-1.438818565400844</v>
       </c>
       <c r="AP3">
-        <v>-5169.999999999999</v>
+        <v>-40.08650519031142</v>
       </c>
       <c r="AQ3">
-        <v>-1.163498098859316</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Capital Concept Limited JSC (BUL:WCO)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>9.144736842105262</v>
-      </c>
-      <c r="H4">
-        <v>9.144736842105262</v>
-      </c>
-      <c r="I4">
-        <v>30.78947368421052</v>
-      </c>
-      <c r="J4">
-        <v>30.78947368421052</v>
-      </c>
-      <c r="K4">
-        <v>-3.21</v>
-      </c>
-      <c r="L4">
-        <v>42.23684210526316</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.158</v>
-      </c>
-      <c r="V4">
-        <v>1.620961702214973e-05</v>
-      </c>
-      <c r="W4">
-        <v>-0.002523584905660377</v>
-      </c>
-      <c r="X4">
-        <v>0.05814949384193374</v>
-      </c>
-      <c r="Y4">
-        <v>-0.06067307874759412</v>
-      </c>
-      <c r="Z4">
-        <v>-0.005716864751015552</v>
-      </c>
-      <c r="AA4">
-        <v>-0.1760192568075841</v>
-      </c>
-      <c r="AB4">
-        <v>0.05810983929075388</v>
-      </c>
-      <c r="AC4">
-        <v>-0.234129096098338</v>
-      </c>
-      <c r="AD4">
-        <v>21</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>21</v>
-      </c>
-      <c r="AG4">
-        <v>20.842</v>
-      </c>
-      <c r="AH4">
-        <v>0.002149811123736986</v>
-      </c>
-      <c r="AI4">
-        <v>0.01736398213990408</v>
-      </c>
-      <c r="AJ4">
-        <v>0.00213367086596407</v>
-      </c>
-      <c r="AK4">
-        <v>0.01723559056003678</v>
-      </c>
-      <c r="AL4">
-        <v>1.34</v>
-      </c>
-      <c r="AM4">
-        <v>1.256</v>
-      </c>
-      <c r="AN4">
-        <v>-24.39024390243902</v>
-      </c>
-      <c r="AO4">
-        <v>-1.746268656716418</v>
-      </c>
-      <c r="AP4">
-        <v>-24.20673635307782</v>
-      </c>
-      <c r="AQ4">
-        <v>-1.863057324840764</v>
+        <v>-1.971098265895954</v>
       </c>
     </row>
   </sheetData>
